--- a/biology/Médecine/Éliglustat/Éliglustat.xlsx
+++ b/biology/Médecine/Éliglustat/Éliglustat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89liglustat</t>
+          <t>Éliglustat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éliglustat est une molécule donnée par voie orale comme traitement de la maladie de Gaucher de type I.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89liglustat</t>
+          <t>Éliglustat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un inhibiteur de la glucocérébroside synthase.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89liglustat</t>
+          <t>Éliglustat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie est d'environ sept heures[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie est d'environ sept heures.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89liglustat</t>
+          <t>Éliglustat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez le patient porteur dune maladie de Gaucher de type I, il permet la réduction des volumes du foie et de la rate[2], une normalisation du taux sanguin de cérébroside et des gangliosides[3], une amélioration de la densité osseuse[4], du nombre d'hématies et de plaquettes sanguines[1]. Ces résultats sont conservés avec un recul de plusieurs années[5].
-Ce traitement peut constituer une alternative à la substitution enzymatique intraveineuse[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le patient porteur dune maladie de Gaucher de type I, il permet la réduction des volumes du foie et de la rate, une normalisation du taux sanguin de cérébroside et des gangliosides, une amélioration de la densité osseuse, du nombre d'hématies et de plaquettes sanguines. Ces résultats sont conservés avec un recul de plusieurs années.
+Ce traitement peut constituer une alternative à la substitution enzymatique intraveineuse.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89liglustat</t>
+          <t>Éliglustat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tolérance du traitement est bonne[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tolérance du traitement est bonne.
 </t>
         </is>
       </c>
